--- a/content/species/data/nba_example_RLI_data_trim_sharks.xlsx
+++ b/content/species/data/nba_example_RLI_data_trim_sharks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanbiorgza.sharepoint.com/sites/RedListsquad/Shared Documents/General/NBA 2025/RLI input data/Graph input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{8FD6900E-D1B1-4D4E-A8E6-A041C8BE9949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72CE3FC4-5DEE-4AD9-83E1-7777DB8013CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F7733-5769-4FAB-A591-C14A489F5F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
+    <workbookView xWindow="35715" yWindow="3150" windowWidth="17280" windowHeight="12330" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -62,10 +62,10 @@
     <t>Aggregate</t>
   </si>
   <si>
-    <t>Sharks (incl. Rays &amp; Chimaeras)_national</t>
+    <t>Sharks (incl. rays &amp; chimaeras)_national</t>
   </si>
   <si>
-    <t>Sharks (incl. Rays &amp; Chimaeras)_global</t>
+    <t>Sharks (incl. rays &amp; chimaeras)_global</t>
   </si>
 </sst>
 </file>
@@ -917,17 +917,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.20703125" customWidth="1"/>
-    <col min="6" max="6" width="16.15625" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -967,7 +967,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -987,7 +987,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0.90974463513832604</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0.90900506057990305</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0.90820474540512897</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>0.90723709066604996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0.90666452795657404</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0.90525217466992702</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0.90347119133092202</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0.90213563833228505</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0.90044022356361497</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0.89898373451215396</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0.89707683471961397</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0.89578550460291795</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0.89325626435041094</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0.89144677660334704</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0.88914091448122401</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0.88619886128448599</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0.88188897619747497</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0.87924298407622403</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.87610515337057004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0.87401277381567</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1391,15 +1391,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a4ec884e7468e8b6decba7ff9ee350d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b02cf9d369237c4b82eaa1e33230624f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1671,6 +1662,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1685,14 +1685,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC1953E-8E39-4764-9DF3-672F7E009BC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1712,6 +1704,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}">
   <ds:schemaRefs>
